--- a/Cialo czarne/ciało czarne.xlsx
+++ b/Cialo czarne/ciało czarne.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natalia\Documents\Studia\MISMaP\Pracownia I R\Pracownia-I-R\Cialo czarne\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C542C8C3-919F-4057-8173-A66D6284073A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E23654-3419-4016-B38B-9A3B2B9317C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E4602D85-B133-416B-8776-6E1B5FDD42E9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>Badanie tła</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>średnia [mV]</t>
+  </si>
+  <si>
+    <t>U [mV]</t>
   </si>
 </sst>
 </file>
@@ -479,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD38F6A-1CF2-4B9E-B6CE-D5904AAC4D24}">
   <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -837,6 +840,9 @@
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
@@ -923,7 +929,7 @@
         <v>14</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>21</v>
